--- a/직업정리.xlsx
+++ b/직업정리.xlsx
@@ -4,7 +4,7 @@
   <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet r:id="rId1" sheetId="1" name="직업 종류"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="42">
   <si>
     <t>질문</t>
   </si>
@@ -35,7 +35,13 @@
     <t>번호</t>
   </si>
   <si>
-    <t>나는 잠을 자지 않는다.</t>
+    <t>다양한 생각을 한다는 소리를 많이 들어봤다</t>
+  </si>
+  <si>
+    <t>네</t>
+  </si>
+  <si>
+    <t>아니요</t>
   </si>
   <si>
     <t>No.</t>
@@ -142,13 +148,19 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -299,11 +311,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -313,10 +328,13 @@
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
@@ -677,473 +695,473 @@
   </sheetPr>
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="4" width="1.5764285714285713" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="23" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="4" width="7.576428571428571" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="24" width="27.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="23" width="7.576428571428571" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="23" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="23" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="5" width="1.5764285714285713" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="25" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="5" width="7.576428571428571" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="26" width="27.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="25" width="7.576428571428571" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="25" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="25" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="1"/>
-      <c r="B1" s="5"/>
+      <c r="B1" s="7"/>
       <c r="C1" s="1"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="1"/>
-      <c r="B2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="9" t="s">
+      <c r="B2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="C2" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="11"/>
-      <c r="G2" s="5"/>
+      <c r="D2" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="13"/>
+      <c r="G2" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="1"/>
-      <c r="B3" s="7">
-        <v>1</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="12">
+      <c r="B3" s="9">
+        <v>0</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="14">
         <v>1015</v>
       </c>
-      <c r="F3" s="13">
+      <c r="F3" s="15">
         <f>RANK(E3,E$3:E$5,0)</f>
       </c>
-      <c r="G3" s="14">
+      <c r="G3" s="16">
         <f>RANK(E3,E$3:E$22)</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="1"/>
-      <c r="B4" s="15">
-        <v>2</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="2" t="s">
+      <c r="B4" s="17">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="16">
+      <c r="D4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="18">
         <v>603</v>
       </c>
-      <c r="F4" s="17">
+      <c r="F4" s="19">
         <f>RANK(E4,E$3:E$5,0)</f>
       </c>
-      <c r="G4" s="17">
+      <c r="G4" s="19">
         <f>RANK(E4,E$3:E$22)</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="1"/>
-      <c r="B5" s="18">
-        <v>3</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="20">
+      <c r="B5" s="20">
+        <v>2</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="22">
         <v>556</v>
       </c>
-      <c r="F5" s="21">
+      <c r="F5" s="23">
         <f>RANK(E5,E$3:E$5,0)</f>
       </c>
-      <c r="G5" s="21">
+      <c r="G5" s="23">
         <f>RANK(E5,E$3:E$22)</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="1"/>
-      <c r="B6" s="7">
-        <v>4</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="12">
+      <c r="B6" s="9">
+        <v>3</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="14">
         <v>727</v>
       </c>
-      <c r="F6" s="13">
+      <c r="F6" s="15">
         <f>RANK(E6,E$6:E$7,0)</f>
       </c>
-      <c r="G6" s="14">
+      <c r="G6" s="16">
         <f>RANK(E6,E$3:E$22)</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="1"/>
-      <c r="B7" s="18">
-        <v>5</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="19" t="s">
+      <c r="B7" s="20">
+        <v>4</v>
+      </c>
+      <c r="C7" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="20">
+      <c r="D7" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="22">
         <v>306</v>
       </c>
-      <c r="F7" s="21">
+      <c r="F7" s="23">
         <f>RANK(E7,E$6:E$7,0)</f>
       </c>
-      <c r="G7" s="21">
+      <c r="G7" s="23">
         <f>RANK(E7,E$3:E$22)</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
       <c r="A8" s="1"/>
-      <c r="B8" s="15">
-        <v>6</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="16">
+      <c r="B8" s="17">
+        <v>5</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="18">
         <v>487</v>
       </c>
-      <c r="F8" s="22">
+      <c r="F8" s="24">
         <f>RANK(E8,E$8:E$9,0)</f>
       </c>
-      <c r="G8" s="17">
+      <c r="G8" s="19">
         <f>RANK(E8,E$3:E$22)</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
       <c r="A9" s="1"/>
-      <c r="B9" s="18">
-        <v>7</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="19" t="s">
+      <c r="B9" s="20">
+        <v>6</v>
+      </c>
+      <c r="C9" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="20">
+      <c r="D9" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="22">
         <v>331</v>
       </c>
-      <c r="F9" s="21">
+      <c r="F9" s="23">
         <f>RANK(E9,E$8:E$9,0)</f>
       </c>
-      <c r="G9" s="21">
+      <c r="G9" s="23">
         <f>RANK(E9,E$3:E$22)</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="1"/>
-      <c r="B10" s="7">
-        <v>8</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" s="12">
+      <c r="B10" s="9">
+        <v>7</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="14">
         <v>377</v>
       </c>
-      <c r="F10" s="13">
+      <c r="F10" s="15">
         <f>RANK(E10,E$10:E$11)</f>
       </c>
-      <c r="G10" s="14">
+      <c r="G10" s="16">
         <f>RANK(E10,E$3:E$22)</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
       <c r="A11" s="1"/>
-      <c r="B11" s="18">
-        <v>9</v>
-      </c>
-      <c r="C11" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="19" t="s">
+      <c r="B11" s="20">
+        <v>8</v>
+      </c>
+      <c r="C11" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="20">
+      <c r="D11" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="22">
         <v>312</v>
       </c>
-      <c r="F11" s="21">
+      <c r="F11" s="23">
         <f>RANK(E11,E$10:E$11)</f>
       </c>
-      <c r="G11" s="21">
+      <c r="G11" s="23">
         <f>RANK(E11,E$3:E$22)</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="1"/>
-      <c r="B12" s="7">
-        <v>10</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" s="12">
+      <c r="B12" s="9">
+        <v>9</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="14">
         <v>436</v>
       </c>
-      <c r="F12" s="13">
+      <c r="F12" s="15">
         <f>RANK(E12,E$12:E$13)</f>
       </c>
-      <c r="G12" s="14">
+      <c r="G12" s="16">
         <f>RANK(E12,E$3:E$22)</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
       <c r="A13" s="1"/>
-      <c r="B13" s="18">
-        <v>11</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="19" t="s">
+      <c r="B13" s="20">
+        <v>10</v>
+      </c>
+      <c r="C13" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="20">
+      <c r="D13" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="22">
         <v>174</v>
       </c>
-      <c r="F13" s="21">
+      <c r="F13" s="23">
         <f>RANK(E13,E$12:E$13)</f>
       </c>
-      <c r="G13" s="21">
+      <c r="G13" s="23">
         <f>RANK(E13,E$3:E$22)</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="1"/>
-      <c r="B14" s="7">
-        <v>12</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E14" s="12">
+      <c r="B14" s="9">
+        <v>11</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="14">
         <v>694</v>
       </c>
-      <c r="F14" s="14">
+      <c r="F14" s="16">
         <f>RANK(E14,E$14:E$16)</f>
       </c>
-      <c r="G14" s="14">
+      <c r="G14" s="16">
         <f>RANK(E14,E$3:E$22)</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
       <c r="A15" s="1"/>
-      <c r="B15" s="15">
-        <v>13</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" s="2" t="s">
+      <c r="B15" s="17">
+        <v>12</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E15" s="16">
+      <c r="D15" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="18">
         <v>1626</v>
       </c>
-      <c r="F15" s="22">
+      <c r="F15" s="24">
         <f>RANK(E15,E$14:E$16)</f>
       </c>
-      <c r="G15" s="17">
+      <c r="G15" s="19">
         <f>RANK(E15,E$3:E$22)</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
       <c r="A16" s="1"/>
-      <c r="B16" s="18">
-        <v>14</v>
-      </c>
-      <c r="C16" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="E16" s="20">
+      <c r="B16" s="20">
+        <v>13</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="22">
         <v>642</v>
       </c>
-      <c r="F16" s="21">
+      <c r="F16" s="23">
         <f>RANK(E16,E$14:E$16)</f>
       </c>
-      <c r="G16" s="21">
+      <c r="G16" s="23">
         <f>RANK(E16,E$3:E$22)</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="1"/>
-      <c r="B17" s="7">
-        <v>15</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="E17" s="12">
+      <c r="B17" s="9">
+        <v>14</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" s="14">
         <v>395</v>
       </c>
-      <c r="F17" s="13">
+      <c r="F17" s="15">
         <f>RANK(E17,E$17:E$18)</f>
       </c>
-      <c r="G17" s="14">
+      <c r="G17" s="16">
         <f>RANK(E17,E$3:E$22)</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
       <c r="A18" s="1"/>
-      <c r="B18" s="18">
-        <v>16</v>
-      </c>
-      <c r="C18" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="D18" s="19" t="s">
+      <c r="B18" s="20">
+        <v>15</v>
+      </c>
+      <c r="C18" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="E18" s="20">
+      <c r="D18" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" s="22">
         <v>221</v>
       </c>
-      <c r="F18" s="21">
+      <c r="F18" s="23">
         <f>RANK(E18,E$17:E$18)</f>
       </c>
-      <c r="G18" s="21">
+      <c r="G18" s="23">
         <f>RANK(E18,E$3:E$22)</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
       <c r="A19" s="1"/>
-      <c r="B19" s="7">
-        <v>17</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="E19" s="12">
+      <c r="B19" s="9">
+        <v>16</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19" s="14">
         <v>261</v>
       </c>
-      <c r="F19" s="14">
+      <c r="F19" s="16">
         <f>RANK(E19,E$19:E$20)</f>
       </c>
-      <c r="G19" s="14">
+      <c r="G19" s="16">
         <f>RANK(E19,E$3:E$22)</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
       <c r="A20" s="1"/>
-      <c r="B20" s="18">
-        <v>18</v>
-      </c>
-      <c r="C20" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="D20" s="19" t="s">
+      <c r="B20" s="20">
+        <v>17</v>
+      </c>
+      <c r="C20" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="E20" s="20">
+      <c r="D20" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="E20" s="22">
         <v>279</v>
       </c>
-      <c r="F20" s="21">
+      <c r="F20" s="23">
         <f>RANK(E20,E$19:E$20)</f>
       </c>
-      <c r="G20" s="21">
+      <c r="G20" s="23">
         <f>RANK(E20,E$3:E$22)</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
       <c r="A21" s="1"/>
-      <c r="B21" s="7">
-        <v>19</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="E21" s="12">
+      <c r="B21" s="9">
+        <v>18</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E21" s="14">
         <v>1088</v>
       </c>
-      <c r="F21" s="13">
+      <c r="F21" s="15">
         <f>RANK(E21,E$21:E$22)</f>
       </c>
-      <c r="G21" s="14">
+      <c r="G21" s="16">
         <f>RANK(E21,E$3:E$22)</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
       <c r="A22" s="1"/>
-      <c r="B22" s="18">
-        <v>20</v>
-      </c>
-      <c r="C22" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="D22" s="19" t="s">
+      <c r="B22" s="20">
+        <v>19</v>
+      </c>
+      <c r="C22" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="E22" s="20">
+      <c r="D22" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="E22" s="22">
         <v>440</v>
       </c>
-      <c r="F22" s="21">
+      <c r="F22" s="23">
         <f>RANK(E22,E$21:E$22)</f>
       </c>
-      <c r="G22" s="21">
+      <c r="G22" s="23">
         <f>RANK(E22,E$3:E$22)</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
       <c r="A23" s="1"/>
-      <c r="B23" s="5"/>
+      <c r="B23" s="7"/>
       <c r="C23" s="1"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1157,56 +1175,60 @@
   </sheetPr>
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="4" width="1.5764285714285713" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="4" width="65.57642857142856" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="4" width="30.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="4" width="23.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="4" width="24.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="4" width="24.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="5" width="1.5764285714285713" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="6" width="65.57642857142856" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="5" width="30.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="5" width="23.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="5" width="24.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="5" width="24.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
+      <c r="B1" s="2"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="21">
       <c r="A2" s="1"/>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="21">
       <c r="A3" s="1"/>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
